--- a/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Katavi_IYCF.xlsx
+++ b/input_spreadsheets/Tanzania/2017Sep/regions/InputForCode_Katavi_IYCF.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/Github Projects/Nutrition/input_spreadsheets/Tanzania/2017Sep/regions/IYCFonly/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="460" windowWidth="25340" windowHeight="13660" tabRatio="500" firstSheet="15" activeTab="20"/>
+    <workbookView xWindow="260" yWindow="460" windowWidth="25340" windowHeight="13660" tabRatio="500" firstSheet="18" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -40,11 +35,11 @@
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -2848,12 +2843,12 @@
       <selection activeCell="B3" sqref="B3:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="32.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2861,7 +2856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -2869,7 +2864,7 @@
         <v>147911.56179969295</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -2877,7 +2872,7 @@
         <v>36237.042598196218</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -2885,7 +2880,7 @@
         <v>42607.024524064065</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>71</v>
       </c>
@@ -2893,7 +2888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>70</v>
       </c>
@@ -2901,7 +2896,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>72</v>
       </c>
@@ -2913,6 +2908,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -2924,12 +2924,12 @@
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>46</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3035,7 +3035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>46</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>47</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -3161,7 +3161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -3201,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>46</v>
       </c>
@@ -3244,7 +3244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>47</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>46</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>47</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>48</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -3390,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="B23" s="5" t="s">
         <v>46</v>
       </c>
@@ -3410,7 +3410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="B24" s="5" t="s">
         <v>47</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
@@ -3450,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="B27" s="5" t="s">
         <v>46</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="B28" s="5" t="s">
         <v>47</v>
       </c>
@@ -3513,7 +3513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="B29" s="5" t="s">
         <v>48</v>
       </c>
@@ -3535,6 +3535,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3546,13 +3551,13 @@
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.83203125" customWidth="1"/>
     <col min="2" max="2" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3569,7 +3574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="8" t="s">
         <v>16</v>
       </c>
@@ -3588,7 +3593,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -3607,7 +3612,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>22</v>
       </c>
@@ -3626,7 +3631,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>24</v>
       </c>
@@ -3645,7 +3650,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>27</v>
       </c>
@@ -3664,7 +3669,7 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
         <v>28</v>
       </c>
@@ -3683,7 +3688,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
         <v>54</v>
       </c>
@@ -3702,7 +3707,7 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
         <v>31</v>
       </c>
@@ -3721,113 +3726,118 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:7" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:7" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="15.75" customHeight="1">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:7" ht="15.75" customHeight="1">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="15.75" customHeight="1">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3839,9 +3849,9 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -3855,7 +3865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5">
         <v>45</v>
       </c>
@@ -3871,6 +3881,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3880,12 +3895,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
@@ -3905,7 +3920,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>45</v>
       </c>
@@ -3925,7 +3940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>46</v>
       </c>
@@ -3945,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -3965,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>48</v>
       </c>
@@ -3987,6 +4002,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3998,9 +4018,9 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -4020,7 +4040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -4042,6 +4062,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4053,9 +4078,9 @@
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>53</v>
       </c>
@@ -4069,7 +4094,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="10">
         <v>1</v>
       </c>
@@ -4085,6 +4110,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4096,12 +4126,12 @@
       <selection activeCell="E30" sqref="E29:E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4121,7 +4151,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>73</v>
       </c>
@@ -4141,7 +4171,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -4149,7 +4179,7 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4157,7 +4187,7 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -4168,6 +4198,11 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4177,12 +4212,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="70.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>76</v>
       </c>
@@ -4202,7 +4237,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>57</v>
       </c>
@@ -4222,7 +4257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -4242,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>59</v>
       </c>
@@ -4262,7 +4297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>60</v>
       </c>
@@ -4284,6 +4319,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4293,13 +4333,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="43.1640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4319,7 +4359,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>79</v>
       </c>
@@ -4341,6 +4381,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4350,12 +4395,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="5" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>11</v>
       </c>
@@ -4372,7 +4417,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="14">
       <c r="A2" s="11" t="s">
         <v>45</v>
       </c>
@@ -4389,14 +4434,14 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4405,6 +4450,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4416,13 +4466,13 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -4430,7 +4480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4">
         <v>2017</v>
       </c>
@@ -4438,7 +4488,7 @@
         <v>36937.237999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="15.75" customHeight="1">
       <c r="A3" s="4">
         <v>2018</v>
       </c>
@@ -4446,7 +4496,7 @@
         <v>37637.469999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" ht="15.75" customHeight="1">
       <c r="A4" s="4">
         <v>2019</v>
       </c>
@@ -4454,7 +4504,7 @@
         <v>38512.759999999995</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2" ht="15.75" customHeight="1">
       <c r="A5" s="4">
         <v>2020</v>
       </c>
@@ -4462,7 +4512,7 @@
         <v>39212.991999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2" ht="15.75" customHeight="1">
       <c r="A6" s="4">
         <v>2021</v>
       </c>
@@ -4470,7 +4520,7 @@
         <v>39913.223999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2" ht="15.75" customHeight="1">
       <c r="A7" s="4">
         <v>2022</v>
       </c>
@@ -4478,7 +4528,7 @@
         <v>40788.513999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2" ht="15.75" customHeight="1">
       <c r="A8" s="4">
         <v>2023</v>
       </c>
@@ -4486,7 +4536,7 @@
         <v>41663.803999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2" ht="15.75" customHeight="1">
       <c r="A9" s="4">
         <v>2024</v>
       </c>
@@ -4494,7 +4544,7 @@
         <v>42364.035999999993</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4">
         <v>2025</v>
       </c>
@@ -4502,7 +4552,7 @@
         <v>43414.383999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2" ht="15.75" customHeight="1">
       <c r="A11" s="4">
         <v>2026</v>
       </c>
@@ -4510,7 +4560,7 @@
         <v>44289.673999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2" ht="15.75" customHeight="1">
       <c r="A12" s="4">
         <v>2027</v>
       </c>
@@ -4518,7 +4568,7 @@
         <v>45164.963999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2" ht="15.75" customHeight="1">
       <c r="A13" s="4">
         <v>2028</v>
       </c>
@@ -4526,7 +4576,7 @@
         <v>46040.253999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2" ht="15.75" customHeight="1">
       <c r="A14" s="4">
         <v>2029</v>
       </c>
@@ -4534,7 +4584,7 @@
         <v>47090.601999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2" ht="15.75" customHeight="1">
       <c r="A15" s="4">
         <v>2030</v>
       </c>
@@ -4544,6 +4594,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4551,11 +4606,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.83203125" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
@@ -4563,7 +4618,7 @@
     <col min="4" max="4" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4577,7 +4632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4594,7 +4649,7 @@
       <c r="F2" s="14"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4611,7 +4666,7 @@
       <c r="F3" s="14"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4625,7 +4680,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4642,7 +4697,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4659,12 +4714,12 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="38">
-        <v>0</v>
+      <c r="B7" s="31">
+        <v>0.24921725731321459</v>
       </c>
       <c r="C7" s="37">
         <v>0.95</v>
@@ -4676,72 +4731,72 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
@@ -4749,6 +4804,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4756,11 +4816,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="37.6640625" customWidth="1"/>
     <col min="2" max="6" width="13.5" customWidth="1"/>
@@ -4770,7 +4830,7 @@
     <col min="10" max="10" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -4795,7 +4855,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -4818,7 +4878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>74</v>
       </c>
@@ -4843,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>75</v>
       </c>
@@ -4867,7 +4927,7 @@
         <v>0.28999999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>77</v>
       </c>
@@ -4890,7 +4950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>78</v>
       </c>
@@ -4913,7 +4973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>79</v>
       </c>
@@ -4936,65 +4996,65 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1">
       <c r="B8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1">
       <c r="B9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1">
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1">
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1">
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1">
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1">
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" ht="15.75" customHeight="1">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
@@ -5002,6 +5062,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5013,12 +5078,12 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="33.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
@@ -5038,7 +5103,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -5058,7 +5123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="B3" t="s">
         <v>69</v>
       </c>
@@ -5077,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -5097,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="B5" t="s">
         <v>69</v>
       </c>
@@ -5114,14 +5179,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="5"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -5131,6 +5196,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5142,12 +5212,12 @@
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5170,7 +5240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5193,7 +5263,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5213,7 +5283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5236,7 +5306,7 @@
         <v>0.41599999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5260,6 +5330,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5271,12 +5346,12 @@
       <selection activeCell="A4" sqref="A4:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5299,7 +5374,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5322,7 +5397,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5342,7 +5417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5368,7 +5443,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5392,6 +5467,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5403,12 +5483,12 @@
       <selection activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>68</v>
       </c>
@@ -5431,7 +5511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>64</v>
       </c>
@@ -5454,7 +5534,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>36</v>
       </c>
@@ -5474,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>78</v>
       </c>
@@ -5500,7 +5580,7 @@
         <v>0.496</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>36</v>
       </c>
@@ -5524,6 +5604,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5535,9 +5620,9 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -5548,7 +5633,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="29">
         <v>40</v>
       </c>
@@ -5563,6 +5648,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5574,12 +5664,12 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -5599,7 +5689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -5619,7 +5709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -5639,7 +5729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5659,7 +5749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -5679,7 +5769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -5699,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -5719,7 +5809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -5739,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5759,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -5779,7 +5869,7 @@
         <v>0.1368</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -5799,7 +5889,7 @@
         <v>0.20660000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -5819,7 +5909,7 @@
         <v>2.1100000000000001E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -5839,7 +5929,7 @@
         <v>7.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -5859,7 +5949,7 @@
         <v>8.6199999999999999E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -5879,7 +5969,7 @@
         <v>2.86E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5899,7 +5989,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -5919,7 +6009,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -5946,6 +6036,11 @@
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -5957,9 +6052,9 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -5982,7 +6077,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
@@ -6010,7 +6105,7 @@
         <v>19.508506559759397</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6035,7 +6130,7 @@
         <v>36.085795765821999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6055,7 +6150,7 @@
         <v>28.450398529119457</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6075,7 +6170,7 @@
         <v>15.955299145299145</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>35</v>
       </c>
@@ -6098,7 +6193,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6118,7 +6213,7 @@
         <v>48.515000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6138,7 +6233,7 @@
         <v>2.2399999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6158,7 +6253,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="5" t="s">
         <v>44</v>
       </c>
@@ -6183,7 +6278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>46</v>
       </c>
@@ -6203,7 +6298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>47</v>
       </c>
@@ -6223,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
@@ -6255,6 +6350,11 @@
   </ignoredErrors>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6266,9 +6366,9 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -6279,7 +6379,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="30">
         <v>2.0753488372093027E-2</v>
       </c>
@@ -6292,6 +6392,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6303,9 +6408,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
@@ -6325,7 +6430,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
@@ -6345,7 +6450,7 @@
         <v>2.3356144067796611</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -6369,6 +6474,11 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6378,9 +6488,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6403,7 +6513,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6426,7 +6536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6446,7 +6556,7 @@
         <v>1.67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6466,7 +6576,7 @@
         <v>2.38</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6486,7 +6596,7 @@
         <v>6.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6509,7 +6619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6529,7 +6639,7 @@
         <v>1.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -6549,7 +6659,7 @@
         <v>2.1800000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -6569,7 +6679,7 @@
         <v>6.39</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -6592,7 +6702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -6612,7 +6722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -6632,7 +6742,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -6652,7 +6762,7 @@
         <v>6.01</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -6675,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -6695,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -6715,7 +6825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -6735,7 +6845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -6758,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -6778,7 +6888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -6798,7 +6908,7 @@
         <v>1.86</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -6820,6 +6930,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -6829,9 +6944,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -6854,7 +6969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -6877,7 +6992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
@@ -6897,7 +7012,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
@@ -6917,7 +7032,7 @@
         <v>3.41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1">
       <c r="B5" s="5" t="s">
         <v>33</v>
       </c>
@@ -6937,7 +7052,7 @@
         <v>12.33</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -6960,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="B7" s="5" t="s">
         <v>29</v>
       </c>
@@ -6980,7 +7095,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1">
       <c r="B8" s="5" t="s">
         <v>32</v>
       </c>
@@ -7000,7 +7115,7 @@
         <v>4.66</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="B9" s="5" t="s">
         <v>33</v>
       </c>
@@ -7020,7 +7135,7 @@
         <v>9.68</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -7043,7 +7158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="B11" s="5" t="s">
         <v>29</v>
       </c>
@@ -7063,7 +7178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>32</v>
       </c>
@@ -7083,7 +7198,7 @@
         <v>2.58</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
       <c r="B13" s="5" t="s">
         <v>33</v>
       </c>
@@ -7103,7 +7218,7 @@
         <v>9.6300000000000008</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -7126,7 +7241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
@@ -7146,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
@@ -7166,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="B17" s="5" t="s">
         <v>33</v>
       </c>
@@ -7186,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -7209,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="B19" s="5" t="s">
         <v>29</v>
       </c>
@@ -7229,7 +7344,7 @@
         <v>1.65</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
@@ -7249,7 +7364,7 @@
         <v>2.73</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
@@ -7271,5 +7386,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>